--- a/data/raw/FTS_ABS_v1.xlsx
+++ b/data/raw/FTS_ABS_v1.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="93">
   <si>
-    <t xml:space="preserve">ABS</t>
+    <t xml:space="preserve">ABS_v1</t>
   </si>
   <si>
     <t xml:space="preserve">F-REQ-3098-01/A Dimming bar</t>
@@ -521,9 +521,9 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.35"/>
